--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DA248-9956-4688-97E4-D85FC56CD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C4374-60F6-4C00-BD4B-F8295B76513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51750" yWindow="5060" windowWidth="23900" windowHeight="13150" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="41130" yWindow="4680" windowWidth="25050" windowHeight="15270" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <author>tc={FE4DA3B0-1D89-4466-A82C-55B498414B4A}</author>
     <author>tc={C6B2DA05-385D-4115-9DA5-B253E908FD06}</author>
     <author>tc={59B213B1-786E-49EB-BD79-321B0599FBF0}</author>
+    <author>tc={3B4606B4-ED76-4B86-8B0F-12B9A8CC0B94}</author>
     <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
     <author>tc={C25D3745-BEED-4771-AE05-AE0AF8CBF306}</author>
     <author>tc={D0D34032-D263-4C9B-B026-35176D5F952B}</author>
@@ -83,10 +84,20 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Consensus 565m</t>
+    Consensus 565m
+Q1 guidance: 530-550m
+8/4/25: consensus 552m</t>
       </text>
     </comment>
-    <comment ref="Z12" authorId="4" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="Q12" authorId="4" shapeId="0" xr:uid="{3B4606B4-ED76-4B86-8B0F-12B9A8CC0B94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    8/4/25 consensus: 583m</t>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="5" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,16 +105,17 @@
     Q3 guidance: 1.460-1.465B</t>
       </text>
     </comment>
-    <comment ref="AA12" authorId="5" shapeId="0" xr:uid="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
+    <comment ref="AA12" authorId="6" shapeId="0" xr:uid="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q424 guidance: 2.3-2.4B
-5/5/25 consensus: 2330m</t>
+    Q424, Q125 guidance: 2.3-2.4B
+5/5/25 consensus: 2330m
+8/4/25 consensus: 2350m</t>
       </text>
     </comment>
-    <comment ref="AB12" authorId="6" shapeId="0" xr:uid="{D0D34032-D263-4C9B-B026-35176D5F952B}">
+    <comment ref="AB12" authorId="7" shapeId="0" xr:uid="{D0D34032-D263-4C9B-B026-35176D5F952B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +123,7 @@
     5/5/25 consensus: 2.80B</t>
       </text>
     </comment>
-    <comment ref="O20" authorId="7" shapeId="0" xr:uid="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
+    <comment ref="O20" authorId="8" shapeId="0" xr:uid="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +131,7 @@
     Q424 guidance: 55-65m</t>
       </text>
     </comment>
-    <comment ref="AA20" authorId="8" shapeId="0" xr:uid="{46F2731E-6081-40DC-A00B-069DBA20F116}">
+    <comment ref="AA20" authorId="9" shapeId="0" xr:uid="{46F2731E-6081-40DC-A00B-069DBA20F116}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +139,7 @@
     Q424 guidance: 270-320m</t>
       </text>
     </comment>
-    <comment ref="N25" authorId="9" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+    <comment ref="N25" authorId="10" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>Price</t>
   </si>
@@ -404,6 +416,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Subscribers y/y</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,6 +476,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -536,6 +557,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,14 +584,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>43658</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48038</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>43658</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48038</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
@@ -584,8 +608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9006451" y="0"/>
-          <a:ext cx="0" cy="13136755"/>
+          <a:off x="9555521" y="0"/>
+          <a:ext cx="0" cy="13405068"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -996,14 +1020,20 @@
 539m consensus</text>
   </threadedComment>
   <threadedComment ref="P12" dT="2025-05-05T16:01:24.70" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{59B213B1-786E-49EB-BD79-321B0599FBF0}">
-    <text>Consensus 565m</text>
+    <text>Consensus 565m
+Q1 guidance: 530-550m
+8/4/25: consensus 552m</text>
+  </threadedComment>
+  <threadedComment ref="Q12" dT="2025-08-04T18:19:05.12" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{3B4606B4-ED76-4B86-8B0F-12B9A8CC0B94}">
+    <text>8/4/25 consensus: 583m</text>
   </threadedComment>
   <threadedComment ref="Z12" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
   </threadedComment>
   <threadedComment ref="AA12" dT="2025-05-05T17:09:45.80" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
-    <text>Q424 guidance: 2.3-2.4B
-5/5/25 consensus: 2330m</text>
+    <text>Q424, Q125 guidance: 2.3-2.4B
+5/5/25 consensus: 2330m
+8/4/25 consensus: 2350m</text>
   </threadedComment>
   <threadedComment ref="AB12" dT="2025-05-05T17:09:37.06" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{D0D34032-D263-4C9B-B026-35176D5F952B}">
     <text>5/5/25 consensus: 2.80B</text>
@@ -1024,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
   <dimension ref="H2:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="8:10" x14ac:dyDescent="0.25">
@@ -1049,11 +1079,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f>213.787949+8.377623</f>
-        <v>222.165572</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>14</v>
+        <f>215.453899+8.377623</f>
+        <v>223.83152200000001</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="8:10" x14ac:dyDescent="0.25">
@@ -1062,7 +1092,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>8886.622879999999</v>
+        <v>14549.048930000001</v>
       </c>
     </row>
     <row r="5" spans="8:10" x14ac:dyDescent="0.25">
@@ -1070,11 +1100,11 @@
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <f>165.518+88.553</f>
-        <v>254.071</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>14</v>
+        <f>273.736+48.935</f>
+        <v>322.67099999999999</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="8:10" x14ac:dyDescent="0.25">
@@ -1084,8 +1114,8 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>14</v>
+      <c r="J6" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="8:10" x14ac:dyDescent="0.25">
@@ -1094,7 +1124,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>8632.5518799999991</v>
+        <v>14226.377930000001</v>
       </c>
     </row>
     <row r="9" spans="8:10" x14ac:dyDescent="0.25">
@@ -1115,10 +1145,10 @@
   <dimension ref="A1:DO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1448,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:N6" si="2">F12/F3*1000</f>
+        <f t="shared" ref="F6:O6" si="2">F12/F3*1000</f>
         <v>160.77211538461538</v>
       </c>
       <c r="G6" s="6">
@@ -1452,6 +1482,10 @@
       <c r="N6" s="6">
         <f t="shared" si="2"/>
         <v>215.85419470614625</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
+        <v>247.67540152155536</v>
       </c>
       <c r="X6" s="2">
         <f>53*12</f>
@@ -1569,7 +1603,9 @@
       <c r="N9" s="5">
         <v>470.76</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5">
+        <v>576.36099999999999</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1615,7 +1651,9 @@
       <c r="N10" s="5">
         <v>10.379</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5">
+        <v>9.6489999999999991</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1671,15 +1709,15 @@
         <v>586</v>
       </c>
       <c r="P12" s="8">
-        <v>560</v>
+        <v>544.79999999999995</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" ref="Q12:R12" si="4">+P12+50</f>
-        <v>610</v>
+        <v>594.79999999999995</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="4"/>
-        <v>660</v>
+        <v>644.79999999999995</v>
       </c>
       <c r="U12" s="7">
         <v>82.558000000000007</v>
@@ -1702,7 +1740,7 @@
       </c>
       <c r="AA12" s="7">
         <f>SUM(O12:R12)</f>
-        <v>2416</v>
+        <v>2370.3999999999996</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" ref="AB12:AF12" si="5">+AB3*AB6/1000</f>
@@ -1764,15 +1802,15 @@
       </c>
       <c r="P13" s="5">
         <f>+P12*0.2</f>
-        <v>112</v>
+        <v>108.96</v>
       </c>
       <c r="Q13" s="5">
         <f>+Q12*0.2</f>
-        <v>122</v>
+        <v>118.96</v>
       </c>
       <c r="R13" s="5">
         <f>+R12*0.2</f>
-        <v>132</v>
+        <v>128.96</v>
       </c>
       <c r="W13" s="3">
         <v>67.384</v>
@@ -1789,7 +1827,7 @@
       </c>
       <c r="AA13" s="3">
         <f t="shared" ref="AA13:AF13" si="6">+AA12-AA14</f>
-        <v>531.52</v>
+        <v>521.48799999999983</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="6"/>
@@ -1856,20 +1894,20 @@
         <v>369.541</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ref="O14:R14" si="8">+O12-O13</f>
+        <f>+O12-O13</f>
         <v>430.67899999999997</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="8"/>
-        <v>448</v>
+        <f t="shared" ref="O14:R14" si="8">+P12-P13</f>
+        <v>435.84</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="8"/>
-        <v>488</v>
+        <v>475.84</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>528</v>
+        <v>515.83999999999992</v>
       </c>
       <c r="W14" s="3">
         <f>+W12-W13</f>
@@ -1889,7 +1927,7 @@
       </c>
       <c r="AA14" s="3">
         <f>+AA12*0.78</f>
-        <v>1884.48</v>
+        <v>1848.9119999999998</v>
       </c>
       <c r="AB14" s="3">
         <f>+AB12*0.75</f>
@@ -2409,15 +2447,15 @@
       </c>
       <c r="P20" s="5">
         <f t="shared" si="28"/>
-        <v>138.8082</v>
+        <v>126.64819999999997</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="28"/>
-        <v>115.15719999999999</v>
+        <v>102.99719999999996</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="28"/>
-        <v>84.757499999999993</v>
+        <v>72.597499999999911</v>
       </c>
       <c r="W20" s="3">
         <f>W14-W19</f>
@@ -2437,7 +2475,7 @@
       </c>
       <c r="AA20" s="3">
         <f t="shared" ref="AA20" si="30">AA14-AA19</f>
-        <v>402.73099999999999</v>
+        <v>367.16299999999978</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ref="AB20" si="31">AB14-AB19</f>
@@ -2493,20 +2531,19 @@
         <v>3.6949999999999998</v>
       </c>
       <c r="O21" s="5">
-        <f>+N21</f>
-        <v>3.6949999999999998</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="P21" s="5">
         <f>+O21</f>
-        <v>3.6949999999999998</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="Q21" s="5">
         <f>+P21</f>
-        <v>3.6949999999999998</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="R21" s="5">
         <f>+Q21</f>
-        <v>3.6949999999999998</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="W21" s="3">
         <v>4.2469999999999999</v>
@@ -2566,19 +2603,19 @@
       </c>
       <c r="O22" s="5">
         <f t="shared" si="37"/>
-        <v>61.581999999999944</v>
+        <v>60.484999999999943</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="37"/>
-        <v>142.50319999999999</v>
+        <v>129.24619999999999</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="37"/>
-        <v>118.85219999999998</v>
+        <v>105.59519999999996</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="37"/>
-        <v>88.452499999999986</v>
+        <v>75.19549999999991</v>
       </c>
       <c r="W22" s="3">
         <f>+W20+W21</f>
@@ -2598,7 +2635,7 @@
       </c>
       <c r="AA22" s="3">
         <f t="shared" ref="AA22:AF22" si="38">+AA20+AA21</f>
-        <v>402.73099999999999</v>
+        <v>367.16299999999978</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="38"/>
@@ -2656,20 +2693,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="5">
-        <f>+O22*0.1</f>
-        <v>6.1581999999999946</v>
+        <v>-11.01</v>
       </c>
       <c r="P23" s="5">
         <f>+P22*0.1</f>
-        <v>14.25032</v>
+        <v>12.924619999999999</v>
       </c>
       <c r="Q23" s="5">
         <f>+Q22*0.1</f>
-        <v>11.885219999999999</v>
+        <v>10.559519999999997</v>
       </c>
       <c r="R23" s="5">
         <f>+R22*0.1</f>
-        <v>8.8452499999999983</v>
+        <v>7.5195499999999917</v>
       </c>
       <c r="W23" s="3">
         <v>-3.1360000000000001</v>
@@ -2686,7 +2722,7 @@
       </c>
       <c r="AA23" s="3">
         <f t="shared" ref="AA23:AF23" si="40">+AA22*0.2</f>
-        <v>80.546199999999999</v>
+        <v>73.432599999999965</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="40"/>
@@ -2753,19 +2789,19 @@
       </c>
       <c r="O24" s="5">
         <f t="shared" si="41"/>
-        <v>67.740199999999945</v>
+        <v>49.474999999999945</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="41"/>
-        <v>156.75351999999998</v>
+        <v>142.17081999999999</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="41"/>
-        <v>130.73741999999999</v>
+        <v>116.15471999999995</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="41"/>
-        <v>97.297749999999979</v>
+        <v>82.715049999999906</v>
       </c>
       <c r="W24" s="3">
         <f>+W22-W23</f>
@@ -2785,7 +2821,7 @@
       </c>
       <c r="AA24" s="3">
         <f t="shared" ref="AA24:AF24" si="42">+AA22-AA23</f>
-        <v>322.1848</v>
+        <v>293.7303999999998</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="42"/>
@@ -3200,19 +3236,19 @@
       </c>
       <c r="O25" s="6">
         <f t="shared" ref="O25:R25" si="46">+O24/O26</f>
-        <v>0.28140035937220548</v>
+        <v>0.20062022406272237</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="46"/>
-        <v>0.65117163605744055</v>
+        <v>0.57650008617647297</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="46"/>
-        <v>0.5430978498940805</v>
+        <v>0.47100527442835366</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="46"/>
-        <v>0.40418572451966517</v>
+        <v>0.33540802151307292</v>
       </c>
       <c r="W25" s="2">
         <f>+W24/W26</f>
@@ -3232,7 +3268,7 @@
       </c>
       <c r="AA25" s="2">
         <f>+AA24/AA26</f>
-        <v>1.3710699501132433</v>
+        <v>1.2499811439730946</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" ref="AB25:AF25" si="47">+AB24/AB26</f>
@@ -3290,20 +3326,19 @@
         <v>240.72534999999999</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" ref="O26:R26" si="48">+N26</f>
-        <v>240.72534999999999</v>
+        <v>246.610232</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="48"/>
-        <v>240.72534999999999</v>
+        <f t="shared" ref="O26:R26" si="48">+O26</f>
+        <v>246.610232</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="48"/>
-        <v>240.72534999999999</v>
+        <v>246.610232</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="48"/>
-        <v>240.72534999999999</v>
+        <v>246.610232</v>
       </c>
       <c r="W26" s="3">
         <v>186.78153699999999</v>
@@ -3380,15 +3415,15 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" si="50"/>
-        <v>0.77412814274128139</v>
+        <v>0.72597323600973218</v>
       </c>
       <c r="Q28" s="12">
         <f t="shared" si="50"/>
-        <v>0.51909073703294184</v>
+        <v>0.48123798424130126</v>
       </c>
       <c r="R28" s="12">
         <f t="shared" si="50"/>
-        <v>0.37174496351366226</v>
+        <v>0.34015326132365065</v>
       </c>
       <c r="V28" s="13">
         <f t="shared" ref="V28:AF28" si="51">+V12/U12-1</f>
@@ -3412,11 +3447,11 @@
       </c>
       <c r="AA28" s="13">
         <f t="shared" si="51"/>
-        <v>0.63628655061855133</v>
+        <v>0.60540299651747254</v>
       </c>
       <c r="AB28" s="13">
         <f t="shared" si="51"/>
-        <v>0.22371203178807986</v>
+        <v>0.24725289773877868</v>
       </c>
       <c r="AC28" s="13">
         <f t="shared" si="51"/>
@@ -3456,6 +3491,9 @@
       </c>
     </row>
     <row r="29" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -3483,7 +3521,10 @@
         <f>N3/J3-1</f>
         <v>0.45022771633051395</v>
       </c>
-      <c r="O29" s="12"/>
+      <c r="O29" s="12">
+        <f>O3/K3-1</f>
+        <v>0.38443534230544185</v>
+      </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -3553,7 +3594,7 @@
       </c>
       <c r="R31" s="16">
         <f t="shared" si="59"/>
-        <v>0.8</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="W31" s="14">
         <f>+W14/W12</f>
@@ -3641,7 +3682,7 @@
       </c>
       <c r="AH34" s="3">
         <f>NPV(8%,AA24:DO24)</f>
-        <v>10210.448111003787</v>
+        <v>10184.10144433712</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.25">
@@ -3662,7 +3703,7 @@
       </c>
       <c r="AH35" s="2">
         <f>AH34/Main!I3</f>
-        <v>45.958732575377553</v>
+        <v>45.498959902247904</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.25">
@@ -4505,7 +4546,7 @@
       </c>
       <c r="AH79" s="3">
         <f>NPV(AH77,AA24:DO24)</f>
-        <v>9027.7768708697113</v>
+        <v>9001.6719167412703</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C4374-60F6-4C00-BD4B-F8295B76513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A6AC5-8979-4EB8-B243-EBC2C04C584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41130" yWindow="4680" windowWidth="25050" windowHeight="15270" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="51110" yWindow="4090" windowWidth="23130" windowHeight="14810" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <author>tc={C6B2DA05-385D-4115-9DA5-B253E908FD06}</author>
     <author>tc={59B213B1-786E-49EB-BD79-321B0599FBF0}</author>
     <author>tc={3B4606B4-ED76-4B86-8B0F-12B9A8CC0B94}</author>
+    <author>tc={1E1F15CC-D601-4277-ABB9-8B7AE1AB2197}</author>
     <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
     <author>tc={C25D3745-BEED-4771-AE05-AE0AF8CBF306}</author>
     <author>tc={D0D34032-D263-4C9B-B026-35176D5F952B}</author>
@@ -94,10 +95,20 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    8/4/25 consensus: 583m</t>
+    8/4/25 consensus: 583m
+11/3/25 consensus: 580m
+Q2 guidance: 570-590m</t>
       </text>
     </comment>
-    <comment ref="Z12" authorId="5" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="R12" authorId="5" shapeId="0" xr:uid="{1E1F15CC-D601-4277-ABB9-8B7AE1AB2197}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    11/3/25 consensus: 632m</t>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="6" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +116,7 @@
     Q3 guidance: 1.460-1.465B</t>
       </text>
     </comment>
-    <comment ref="AA12" authorId="6" shapeId="0" xr:uid="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
+    <comment ref="AA12" authorId="7" shapeId="0" xr:uid="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +126,7 @@
 8/4/25 consensus: 2350m</t>
       </text>
     </comment>
-    <comment ref="AB12" authorId="7" shapeId="0" xr:uid="{D0D34032-D263-4C9B-B026-35176D5F952B}">
+    <comment ref="AB12" authorId="8" shapeId="0" xr:uid="{D0D34032-D263-4C9B-B026-35176D5F952B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +134,7 @@
     5/5/25 consensus: 2.80B</t>
       </text>
     </comment>
-    <comment ref="O20" authorId="8" shapeId="0" xr:uid="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
+    <comment ref="O20" authorId="9" shapeId="0" xr:uid="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +142,7 @@
     Q424 guidance: 55-65m</t>
       </text>
     </comment>
-    <comment ref="AA20" authorId="9" shapeId="0" xr:uid="{46F2731E-6081-40DC-A00B-069DBA20F116}">
+    <comment ref="AA20" authorId="10" shapeId="0" xr:uid="{46F2731E-6081-40DC-A00B-069DBA20F116}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +150,7 @@
     Q424 guidance: 270-320m</t>
       </text>
     </comment>
-    <comment ref="N25" authorId="10" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+    <comment ref="N25" authorId="11" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -584,16 +595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>48038</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52417</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>48038</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52417</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:rowOff>153275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -608,7 +619,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9555521" y="0"/>
+          <a:off x="10155486" y="26276"/>
           <a:ext cx="0" cy="13405068"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1025,7 +1036,12 @@
 8/4/25: consensus 552m</text>
   </threadedComment>
   <threadedComment ref="Q12" dT="2025-08-04T18:19:05.12" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{3B4606B4-ED76-4B86-8B0F-12B9A8CC0B94}">
-    <text>8/4/25 consensus: 583m</text>
+    <text>8/4/25 consensus: 583m
+11/3/25 consensus: 580m
+Q2 guidance: 570-590m</text>
+  </threadedComment>
+  <threadedComment ref="R12" dT="2025-11-03T20:49:42.46" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{1E1F15CC-D601-4277-ABB9-8B7AE1AB2197}">
+    <text>11/3/25 consensus: 632m</text>
   </threadedComment>
   <threadedComment ref="Z12" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
@@ -1145,10 +1161,10 @@
   <dimension ref="A1:DO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1801,8 +1817,7 @@
         <v>155.321</v>
       </c>
       <c r="P13" s="5">
-        <f>+P12*0.2</f>
-        <v>108.96</v>
+        <v>128.637</v>
       </c>
       <c r="Q13" s="5">
         <f>+Q12*0.2</f>
@@ -1898,11 +1913,11 @@
         <v>430.67899999999997</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" ref="O14:R14" si="8">+P12-P13</f>
-        <v>435.84</v>
+        <f>+P12-P13</f>
+        <v>416.16299999999995</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P14:R14" si="8">+Q12-Q13</f>
         <v>475.84</v>
       </c>
       <c r="R14" s="5">
@@ -1988,11 +2003,10 @@
         <v>231.23500000000001</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" ref="P15:R15" si="9">+L15*1.3</f>
-        <v>188.39860000000002</v>
+        <v>217.86199999999999</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P15:R15" si="9">+M15*1.3</f>
         <v>236.9692</v>
       </c>
       <c r="R15" s="5">
@@ -2075,15 +2089,14 @@
         <v>63.033000000000001</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" ref="P16:P18" si="12">+L16*1.2</f>
-        <v>49.743600000000001</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" ref="Q16:Q18" si="13">+M16*1.2</f>
+        <f t="shared" ref="Q16:Q18" si="12">+M16*1.2</f>
         <v>57.022799999999997</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R18" si="14">+N16*1.2</f>
+        <f t="shared" ref="R16:R18" si="13">+N16*1.2</f>
         <v>69.69959999999999</v>
       </c>
       <c r="W16" s="3">
@@ -2104,23 +2117,23 @@
         <v>260.12279999999998</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AF16" si="15">+AA16*1.1</f>
+        <f t="shared" ref="AB16:AF16" si="14">+AA16*1.1</f>
         <v>286.13508000000002</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>314.74858800000004</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>346.22344680000009</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>380.84579148000012</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>418.93037062800016</v>
       </c>
     </row>
@@ -2162,15 +2175,14 @@
         <v>29.914000000000001</v>
       </c>
       <c r="P17" s="5">
+        <v>37.847999999999999</v>
+      </c>
+      <c r="Q17" s="5">
         <f t="shared" si="12"/>
-        <v>22.384799999999998</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>25.310399999999998</v>
+      </c>
+      <c r="R17" s="5">
         <f t="shared" si="13"/>
-        <v>25.310399999999998</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="14"/>
         <v>28.498799999999999</v>
       </c>
       <c r="W17" s="3">
@@ -2187,27 +2199,27 @@
         <v>78.819000000000003</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" ref="AA17:AF17" si="16">+Z17*1.1</f>
+        <f t="shared" ref="AA17:AF17" si="15">+Z17*1.1</f>
         <v>86.700900000000004</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>95.370990000000006</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>104.90808900000002</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>115.39889790000002</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>126.93878769000004</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>139.63266645900006</v>
       </c>
     </row>
@@ -2249,15 +2261,14 @@
         <v>48.61</v>
       </c>
       <c r="P18" s="5">
+        <v>67.272999999999996</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="12"/>
-        <v>48.6648</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>53.540399999999998</v>
+      </c>
+      <c r="R18" s="5">
         <f t="shared" si="13"/>
-        <v>53.540399999999998</v>
-      </c>
-      <c r="R18" s="5">
-        <f t="shared" si="14"/>
         <v>57.633599999999994</v>
       </c>
       <c r="W18" s="3">
@@ -2274,27 +2285,27 @@
         <v>167.767</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AF18" si="17">+Z18*1.1</f>
+        <f t="shared" ref="AA18:AF18" si="16">+Z18*1.1</f>
         <v>184.5437</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>202.99807000000001</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>223.29787700000003</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>245.62766470000005</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>270.19043117000007</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>297.20947428700009</v>
       </c>
     </row>
@@ -2322,7 +2333,7 @@
         <v>195.86200000000002</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19" si="18">SUM(J15:J18)</f>
+        <f t="shared" ref="J19" si="17">SUM(J15:J18)</f>
         <v>204.45799999999997</v>
       </c>
       <c r="K19" s="5">
@@ -2338,23 +2349,23 @@
         <v>295.512</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" ref="N19:R19" si="19">SUM(N15:N18)</f>
+        <f t="shared" ref="N19:R19" si="18">SUM(N15:N18)</f>
         <v>350.94500000000005</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>372.79200000000003</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="19"/>
-        <v>309.1918</v>
+        <f t="shared" si="18"/>
+        <v>389.47299999999996</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>372.84280000000001</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>443.24250000000001</v>
       </c>
       <c r="W19" s="3">
@@ -2370,31 +2381,31 @@
         <v>744.40200000000004</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" ref="Z19" si="20">SUM(Z15:Z18)</f>
+        <f t="shared" ref="Z19" si="19">SUM(Z15:Z18)</f>
         <v>1111.232</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" ref="AA19" si="21">SUM(AA15:AA18)</f>
+        <f t="shared" ref="AA19" si="20">SUM(AA15:AA18)</f>
         <v>1481.749</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" ref="AB19" si="22">SUM(AB15:AB18)</f>
+        <f t="shared" ref="AB19" si="21">SUM(AB15:AB18)</f>
         <v>1629.9239000000002</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19" si="23">SUM(AC15:AC18)</f>
+        <f t="shared" ref="AC19" si="22">SUM(AC15:AC18)</f>
         <v>1792.9162900000006</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" ref="AD19" si="24">SUM(AD15:AD18)</f>
+        <f t="shared" ref="AD19" si="23">SUM(AD15:AD18)</f>
         <v>1972.2079190000009</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" ref="AE19" si="25">SUM(AE15:AE18)</f>
+        <f t="shared" ref="AE19" si="24">SUM(AE15:AE18)</f>
         <v>2169.4287109000011</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19" si="26">SUM(AF15:AF18)</f>
+        <f t="shared" ref="AF19" si="25">SUM(AF15:AF18)</f>
         <v>2386.3715819900012</v>
       </c>
     </row>
@@ -2422,7 +2433,7 @@
         <v>-8.554000000000002</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20" si="27">J14-J19</f>
+        <f t="shared" ref="J20" si="26">J14-J19</f>
         <v>-0.39999999999997726</v>
       </c>
       <c r="K20" s="5">
@@ -2438,23 +2449,23 @@
         <v>22.373999999999967</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" ref="N20:R20" si="28">N14-N19</f>
+        <f t="shared" ref="N20:R20" si="27">N14-N19</f>
         <v>18.595999999999947</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>57.886999999999944</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="28"/>
-        <v>126.64819999999997</v>
+        <f t="shared" si="27"/>
+        <v>26.689999999999998</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>102.99719999999996</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>72.597499999999911</v>
       </c>
       <c r="W20" s="3">
@@ -2470,31 +2481,31 @@
         <v>-29.452999999999975</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" ref="Z20" si="29">Z14-Z19</f>
+        <f t="shared" ref="Z20" si="28">Z14-Z19</f>
         <v>61.903000000000247</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ref="AA20" si="30">AA14-AA19</f>
+        <f t="shared" ref="AA20" si="29">AA14-AA19</f>
         <v>367.16299999999978</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" ref="AB20" si="31">AB14-AB19</f>
+        <f t="shared" ref="AB20" si="30">AB14-AB19</f>
         <v>587.44230160000052</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" ref="AC20" si="32">AC14-AC19</f>
+        <f t="shared" ref="AC20" si="31">AC14-AC19</f>
         <v>722.26480534207985</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" ref="AD20" si="33">AD14-AD19</f>
+        <f t="shared" ref="AD20" si="32">AD14-AD19</f>
         <v>869.56400277894409</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" ref="AE20" si="34">AE14-AE19</f>
+        <f t="shared" ref="AE20" si="33">AE14-AE19</f>
         <v>1090.3868134731124</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" ref="AF20" si="35">AF14-AF19</f>
+        <f t="shared" ref="AF20" si="34">AF14-AF19</f>
         <v>1314.0125664033294</v>
       </c>
     </row>
@@ -2534,16 +2545,15 @@
         <v>2.5979999999999999</v>
       </c>
       <c r="P21" s="5">
-        <f>+O21</f>
-        <v>2.5979999999999999</v>
+        <v>6.13</v>
       </c>
       <c r="Q21" s="5">
         <f>+P21</f>
-        <v>2.5979999999999999</v>
+        <v>6.13</v>
       </c>
       <c r="R21" s="5">
         <f>+Q21</f>
-        <v>2.5979999999999999</v>
+        <v>6.13</v>
       </c>
       <c r="W21" s="3">
         <v>4.2469999999999999</v>
@@ -2555,7 +2565,7 @@
         <v>7.8819999999999997</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" ref="Z21" si="36">SUM(K21:N21)</f>
+        <f t="shared" ref="Z21" si="35">SUM(K21:N21)</f>
         <v>9.8079999999999998</v>
       </c>
     </row>
@@ -2566,56 +2576,56 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:R22" si="37">+F20+F21</f>
+        <f t="shared" ref="F22:R22" si="36">+F20+F21</f>
         <v>-11.028000000000018</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-9.3853000000000044</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-6.9969999999999901</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-6.3280000000000021</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2.1960000000000228</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>12.403000000000048</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>13.424000000000058</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>22.290999999999947</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>60.484999999999943</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="37"/>
-        <v>129.24619999999999</v>
+        <f t="shared" si="36"/>
+        <v>32.82</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="37"/>
-        <v>105.59519999999996</v>
+        <f t="shared" si="36"/>
+        <v>109.12719999999996</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="37"/>
-        <v>75.19549999999991</v>
+        <f t="shared" si="36"/>
+        <v>78.727499999999907</v>
       </c>
       <c r="W22" s="3">
         <f>+W20+W21</f>
@@ -2634,27 +2644,27 @@
         <v>71.71100000000024</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AF22" si="38">+AA20+AA21</f>
+        <f t="shared" ref="AA22:AF22" si="37">+AA20+AA21</f>
         <v>367.16299999999978</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>587.44230160000052</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>722.26480534207985</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>869.56400277894409</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1090.3868134731124</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1314.0125664033294</v>
       </c>
     </row>
@@ -2696,16 +2706,15 @@
         <v>-11.01</v>
       </c>
       <c r="P23" s="5">
-        <f>+P22*0.1</f>
-        <v>12.924619999999999</v>
+        <v>9.6519999999999992</v>
       </c>
       <c r="Q23" s="5">
         <f>+Q22*0.1</f>
-        <v>10.559519999999997</v>
+        <v>10.912719999999997</v>
       </c>
       <c r="R23" s="5">
         <f>+R22*0.1</f>
-        <v>7.5195499999999917</v>
+        <v>7.872749999999991</v>
       </c>
       <c r="W23" s="3">
         <v>-3.1360000000000001</v>
@@ -2717,31 +2726,31 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23" si="39">SUM(K23:N23)</f>
+        <f t="shared" ref="Z23" si="38">SUM(K23:N23)</f>
         <v>1.1479999999999999</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23:AF23" si="40">+AA22*0.2</f>
+        <f t="shared" ref="AA23:AF23" si="39">+AA22*0.2</f>
         <v>73.432599999999965</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>117.48846032000012</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>144.45296106841599</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>173.91280055578883</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>218.07736269462248</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>262.80251328066589</v>
       </c>
     </row>
@@ -2752,56 +2761,56 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5">
-        <f t="shared" ref="F24:R24" si="41">+F22+F23</f>
+        <f t="shared" ref="F24:R24" si="40">+F22+F23</f>
         <v>-10.907000000000018</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-8.9993000000000052</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-6.9839999999999902</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5.6770000000000023</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1.2450000000000228</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13.678000000000049</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>13.297000000000057</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>22.290999999999947</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>49.474999999999945</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="41"/>
-        <v>142.17081999999999</v>
+        <f t="shared" si="40"/>
+        <v>42.472000000000001</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="41"/>
-        <v>116.15471999999995</v>
+        <f t="shared" si="40"/>
+        <v>120.03991999999995</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="41"/>
-        <v>82.715049999999906</v>
+        <f t="shared" si="40"/>
+        <v>86.600249999999903</v>
       </c>
       <c r="W24" s="3">
         <f>+W22-W23</f>
@@ -2820,27 +2829,27 @@
         <v>70.563000000000244</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" ref="AA24:AF24" si="42">+AA22-AA23</f>
+        <f t="shared" ref="AA24:AF24" si="41">+AA22-AA23</f>
         <v>293.7303999999998</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>469.9538412800004</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>577.81184427366384</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>695.65120222315522</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>872.30945077848992</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1051.2100531226636</v>
       </c>
       <c r="AG24" s="3">
@@ -2848,347 +2857,347 @@
         <v>1040.6979525914369</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:CS24" si="43">+AG24*(1+$AH$78)</f>
+        <f t="shared" ref="AH24:CS24" si="42">+AG24*(1+$AH$78)</f>
         <v>1030.2909730655226</v>
       </c>
       <c r="AI24" s="3">
+        <f t="shared" si="42"/>
+        <v>1019.9880633348674</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="42"/>
+        <v>1009.7881827015187</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="42"/>
+        <v>999.69030087450358</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="42"/>
+        <v>989.69339786575858</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="42"/>
+        <v>979.79646388710103</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="42"/>
+        <v>969.99849924823002</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="42"/>
+        <v>960.2985142557477</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="42"/>
+        <v>950.69552911319022</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="42"/>
+        <v>941.18857382205829</v>
+      </c>
+      <c r="AR24" s="3">
+        <f t="shared" si="42"/>
+        <v>931.77668808383771</v>
+      </c>
+      <c r="AS24" s="3">
+        <f t="shared" si="42"/>
+        <v>922.45892120299936</v>
+      </c>
+      <c r="AT24" s="3">
+        <f t="shared" si="42"/>
+        <v>913.23433199096939</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="42"/>
+        <v>904.10198867105964</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="42"/>
+        <v>895.06096878434903</v>
+      </c>
+      <c r="AW24" s="3">
+        <f t="shared" si="42"/>
+        <v>886.11035909650548</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="42"/>
+        <v>877.24925550554042</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="42"/>
+        <v>868.47676295048495</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="42"/>
+        <v>859.79199532098005</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="42"/>
+        <v>851.19407536777021</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="42"/>
+        <v>842.68213461409255</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="42"/>
+        <v>834.25531326795158</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="42"/>
+        <v>825.91276013527204</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="42"/>
+        <v>817.65363253391934</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" si="42"/>
+        <v>809.47709620858018</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="42"/>
+        <v>801.38232524649436</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" si="42"/>
+        <v>793.36850199402943</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" si="42"/>
+        <v>785.43481697408913</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f t="shared" si="42"/>
+        <v>777.58046880434824</v>
+      </c>
+      <c r="BK24" s="3">
+        <f t="shared" si="42"/>
+        <v>769.80466411630471</v>
+      </c>
+      <c r="BL24" s="3">
+        <f t="shared" si="42"/>
+        <v>762.10661747514166</v>
+      </c>
+      <c r="BM24" s="3">
+        <f t="shared" si="42"/>
+        <v>754.48555130039028</v>
+      </c>
+      <c r="BN24" s="3">
+        <f t="shared" si="42"/>
+        <v>746.9406957873864</v>
+      </c>
+      <c r="BO24" s="3">
+        <f t="shared" si="42"/>
+        <v>739.47128882951256</v>
+      </c>
+      <c r="BP24" s="3">
+        <f t="shared" si="42"/>
+        <v>732.07657594121747</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" si="42"/>
+        <v>724.75581018180526</v>
+      </c>
+      <c r="BR24" s="3">
+        <f t="shared" si="42"/>
+        <v>717.50825207998719</v>
+      </c>
+      <c r="BS24" s="3">
+        <f t="shared" si="42"/>
+        <v>710.33316955918735</v>
+      </c>
+      <c r="BT24" s="3">
+        <f t="shared" si="42"/>
+        <v>703.22983786359544</v>
+      </c>
+      <c r="BU24" s="3">
+        <f t="shared" si="42"/>
+        <v>696.19753948495952</v>
+      </c>
+      <c r="BV24" s="3">
+        <f t="shared" si="42"/>
+        <v>689.23556409010996</v>
+      </c>
+      <c r="BW24" s="3">
+        <f t="shared" si="42"/>
+        <v>682.34320844920887</v>
+      </c>
+      <c r="BX24" s="3">
+        <f t="shared" si="42"/>
+        <v>675.51977636471679</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" si="42"/>
+        <v>668.76457860106962</v>
+      </c>
+      <c r="BZ24" s="3">
+        <f t="shared" si="42"/>
+        <v>662.07693281505897</v>
+      </c>
+      <c r="CA24" s="3">
+        <f t="shared" si="42"/>
+        <v>655.45616348690839</v>
+      </c>
+      <c r="CB24" s="3">
+        <f t="shared" si="42"/>
+        <v>648.90160185203933</v>
+      </c>
+      <c r="CC24" s="3">
+        <f t="shared" si="42"/>
+        <v>642.41258583351896</v>
+      </c>
+      <c r="CD24" s="3">
+        <f t="shared" si="42"/>
+        <v>635.98845997518379</v>
+      </c>
+      <c r="CE24" s="3">
+        <f t="shared" si="42"/>
+        <v>629.62857537543198</v>
+      </c>
+      <c r="CF24" s="3">
+        <f t="shared" si="42"/>
+        <v>623.33228962167766</v>
+      </c>
+      <c r="CG24" s="3">
+        <f t="shared" si="42"/>
+        <v>617.09896672546085</v>
+      </c>
+      <c r="CH24" s="3">
+        <f t="shared" si="42"/>
+        <v>610.92797705820624</v>
+      </c>
+      <c r="CI24" s="3">
+        <f t="shared" si="42"/>
+        <v>604.81869728762422</v>
+      </c>
+      <c r="CJ24" s="3">
+        <f t="shared" si="42"/>
+        <v>598.77051031474798</v>
+      </c>
+      <c r="CK24" s="3">
+        <f t="shared" si="42"/>
+        <v>592.78280521160048</v>
+      </c>
+      <c r="CL24" s="3">
+        <f t="shared" si="42"/>
+        <v>586.85497715948452</v>
+      </c>
+      <c r="CM24" s="3">
+        <f t="shared" si="42"/>
+        <v>580.98642738788965</v>
+      </c>
+      <c r="CN24" s="3">
+        <f t="shared" si="42"/>
+        <v>575.17656311401072</v>
+      </c>
+      <c r="CO24" s="3">
+        <f t="shared" si="42"/>
+        <v>569.42479748287064</v>
+      </c>
+      <c r="CP24" s="3">
+        <f t="shared" si="42"/>
+        <v>563.73054950804192</v>
+      </c>
+      <c r="CQ24" s="3">
+        <f t="shared" si="42"/>
+        <v>558.09324401296146</v>
+      </c>
+      <c r="CR24" s="3">
+        <f t="shared" si="42"/>
+        <v>552.51231157283189</v>
+      </c>
+      <c r="CS24" s="3">
+        <f t="shared" si="42"/>
+        <v>546.98718845710357</v>
+      </c>
+      <c r="CT24" s="3">
+        <f t="shared" ref="CT24:DO24" si="43">+CS24*(1+$AH$78)</f>
+        <v>541.51731657253254</v>
+      </c>
+      <c r="CU24" s="3">
         <f t="shared" si="43"/>
-        <v>1019.9880633348674</v>
-      </c>
-      <c r="AJ24" s="3">
+        <v>536.10214340680716</v>
+      </c>
+      <c r="CV24" s="3">
         <f t="shared" si="43"/>
-        <v>1009.7881827015187</v>
-      </c>
-      <c r="AK24" s="3">
+        <v>530.74112197273905</v>
+      </c>
+      <c r="CW24" s="3">
         <f t="shared" si="43"/>
-        <v>999.69030087450358</v>
-      </c>
-      <c r="AL24" s="3">
+        <v>525.43371075301161</v>
+      </c>
+      <c r="CX24" s="3">
         <f t="shared" si="43"/>
-        <v>989.69339786575858</v>
-      </c>
-      <c r="AM24" s="3">
+        <v>520.17937364548152</v>
+      </c>
+      <c r="CY24" s="3">
         <f t="shared" si="43"/>
-        <v>979.79646388710103</v>
-      </c>
-      <c r="AN24" s="3">
+        <v>514.97757990902664</v>
+      </c>
+      <c r="CZ24" s="3">
         <f t="shared" si="43"/>
-        <v>969.99849924823002</v>
-      </c>
-      <c r="AO24" s="3">
+        <v>509.82780410993638</v>
+      </c>
+      <c r="DA24" s="3">
         <f t="shared" si="43"/>
-        <v>960.2985142557477</v>
-      </c>
-      <c r="AP24" s="3">
+        <v>504.729526068837</v>
+      </c>
+      <c r="DB24" s="3">
         <f t="shared" si="43"/>
-        <v>950.69552911319022</v>
-      </c>
-      <c r="AQ24" s="3">
+        <v>499.68223080814863</v>
+      </c>
+      <c r="DC24" s="3">
         <f t="shared" si="43"/>
-        <v>941.18857382205829</v>
-      </c>
-      <c r="AR24" s="3">
+        <v>494.68540850006713</v>
+      </c>
+      <c r="DD24" s="3">
         <f t="shared" si="43"/>
-        <v>931.77668808383771</v>
-      </c>
-      <c r="AS24" s="3">
+        <v>489.73855441506646</v>
+      </c>
+      <c r="DE24" s="3">
         <f t="shared" si="43"/>
-        <v>922.45892120299936</v>
-      </c>
-      <c r="AT24" s="3">
+        <v>484.84116887091579</v>
+      </c>
+      <c r="DF24" s="3">
         <f t="shared" si="43"/>
-        <v>913.23433199096939</v>
-      </c>
-      <c r="AU24" s="3">
+        <v>479.99275718220662</v>
+      </c>
+      <c r="DG24" s="3">
         <f t="shared" si="43"/>
-        <v>904.10198867105964</v>
-      </c>
-      <c r="AV24" s="3">
+        <v>475.19282961038454</v>
+      </c>
+      <c r="DH24" s="3">
         <f t="shared" si="43"/>
-        <v>895.06096878434903</v>
-      </c>
-      <c r="AW24" s="3">
+        <v>470.44090131428067</v>
+      </c>
+      <c r="DI24" s="3">
         <f t="shared" si="43"/>
-        <v>886.11035909650548</v>
-      </c>
-      <c r="AX24" s="3">
+        <v>465.73649230113784</v>
+      </c>
+      <c r="DJ24" s="3">
         <f t="shared" si="43"/>
-        <v>877.24925550554042</v>
-      </c>
-      <c r="AY24" s="3">
+        <v>461.07912737812649</v>
+      </c>
+      <c r="DK24" s="3">
         <f t="shared" si="43"/>
-        <v>868.47676295048495</v>
-      </c>
-      <c r="AZ24" s="3">
+        <v>456.46833610434521</v>
+      </c>
+      <c r="DL24" s="3">
         <f t="shared" si="43"/>
-        <v>859.79199532098005</v>
-      </c>
-      <c r="BA24" s="3">
+        <v>451.90365274330173</v>
+      </c>
+      <c r="DM24" s="3">
         <f t="shared" si="43"/>
-        <v>851.19407536777021</v>
-      </c>
-      <c r="BB24" s="3">
+        <v>447.38461621586873</v>
+      </c>
+      <c r="DN24" s="3">
         <f t="shared" si="43"/>
-        <v>842.68213461409255</v>
-      </c>
-      <c r="BC24" s="3">
+        <v>442.91077005371005</v>
+      </c>
+      <c r="DO24" s="3">
         <f t="shared" si="43"/>
-        <v>834.25531326795158</v>
-      </c>
-      <c r="BD24" s="3">
-        <f t="shared" si="43"/>
-        <v>825.91276013527204</v>
-      </c>
-      <c r="BE24" s="3">
-        <f t="shared" si="43"/>
-        <v>817.65363253391934</v>
-      </c>
-      <c r="BF24" s="3">
-        <f t="shared" si="43"/>
-        <v>809.47709620858018</v>
-      </c>
-      <c r="BG24" s="3">
-        <f t="shared" si="43"/>
-        <v>801.38232524649436</v>
-      </c>
-      <c r="BH24" s="3">
-        <f t="shared" si="43"/>
-        <v>793.36850199402943</v>
-      </c>
-      <c r="BI24" s="3">
-        <f t="shared" si="43"/>
-        <v>785.43481697408913</v>
-      </c>
-      <c r="BJ24" s="3">
-        <f t="shared" si="43"/>
-        <v>777.58046880434824</v>
-      </c>
-      <c r="BK24" s="3">
-        <f t="shared" si="43"/>
-        <v>769.80466411630471</v>
-      </c>
-      <c r="BL24" s="3">
-        <f t="shared" si="43"/>
-        <v>762.10661747514166</v>
-      </c>
-      <c r="BM24" s="3">
-        <f t="shared" si="43"/>
-        <v>754.48555130039028</v>
-      </c>
-      <c r="BN24" s="3">
-        <f t="shared" si="43"/>
-        <v>746.9406957873864</v>
-      </c>
-      <c r="BO24" s="3">
-        <f t="shared" si="43"/>
-        <v>739.47128882951256</v>
-      </c>
-      <c r="BP24" s="3">
-        <f t="shared" si="43"/>
-        <v>732.07657594121747</v>
-      </c>
-      <c r="BQ24" s="3">
-        <f t="shared" si="43"/>
-        <v>724.75581018180526</v>
-      </c>
-      <c r="BR24" s="3">
-        <f t="shared" si="43"/>
-        <v>717.50825207998719</v>
-      </c>
-      <c r="BS24" s="3">
-        <f t="shared" si="43"/>
-        <v>710.33316955918735</v>
-      </c>
-      <c r="BT24" s="3">
-        <f t="shared" si="43"/>
-        <v>703.22983786359544</v>
-      </c>
-      <c r="BU24" s="3">
-        <f t="shared" si="43"/>
-        <v>696.19753948495952</v>
-      </c>
-      <c r="BV24" s="3">
-        <f t="shared" si="43"/>
-        <v>689.23556409010996</v>
-      </c>
-      <c r="BW24" s="3">
-        <f t="shared" si="43"/>
-        <v>682.34320844920887</v>
-      </c>
-      <c r="BX24" s="3">
-        <f t="shared" si="43"/>
-        <v>675.51977636471679</v>
-      </c>
-      <c r="BY24" s="3">
-        <f t="shared" si="43"/>
-        <v>668.76457860106962</v>
-      </c>
-      <c r="BZ24" s="3">
-        <f t="shared" si="43"/>
-        <v>662.07693281505897</v>
-      </c>
-      <c r="CA24" s="3">
-        <f t="shared" si="43"/>
-        <v>655.45616348690839</v>
-      </c>
-      <c r="CB24" s="3">
-        <f t="shared" si="43"/>
-        <v>648.90160185203933</v>
-      </c>
-      <c r="CC24" s="3">
-        <f t="shared" si="43"/>
-        <v>642.41258583351896</v>
-      </c>
-      <c r="CD24" s="3">
-        <f t="shared" si="43"/>
-        <v>635.98845997518379</v>
-      </c>
-      <c r="CE24" s="3">
-        <f t="shared" si="43"/>
-        <v>629.62857537543198</v>
-      </c>
-      <c r="CF24" s="3">
-        <f t="shared" si="43"/>
-        <v>623.33228962167766</v>
-      </c>
-      <c r="CG24" s="3">
-        <f t="shared" si="43"/>
-        <v>617.09896672546085</v>
-      </c>
-      <c r="CH24" s="3">
-        <f t="shared" si="43"/>
-        <v>610.92797705820624</v>
-      </c>
-      <c r="CI24" s="3">
-        <f t="shared" si="43"/>
-        <v>604.81869728762422</v>
-      </c>
-      <c r="CJ24" s="3">
-        <f t="shared" si="43"/>
-        <v>598.77051031474798</v>
-      </c>
-      <c r="CK24" s="3">
-        <f t="shared" si="43"/>
-        <v>592.78280521160048</v>
-      </c>
-      <c r="CL24" s="3">
-        <f t="shared" si="43"/>
-        <v>586.85497715948452</v>
-      </c>
-      <c r="CM24" s="3">
-        <f t="shared" si="43"/>
-        <v>580.98642738788965</v>
-      </c>
-      <c r="CN24" s="3">
-        <f t="shared" si="43"/>
-        <v>575.17656311401072</v>
-      </c>
-      <c r="CO24" s="3">
-        <f t="shared" si="43"/>
-        <v>569.42479748287064</v>
-      </c>
-      <c r="CP24" s="3">
-        <f t="shared" si="43"/>
-        <v>563.73054950804192</v>
-      </c>
-      <c r="CQ24" s="3">
-        <f t="shared" si="43"/>
-        <v>558.09324401296146</v>
-      </c>
-      <c r="CR24" s="3">
-        <f t="shared" si="43"/>
-        <v>552.51231157283189</v>
-      </c>
-      <c r="CS24" s="3">
-        <f t="shared" si="43"/>
-        <v>546.98718845710357</v>
-      </c>
-      <c r="CT24" s="3">
-        <f t="shared" ref="CT24:DO24" si="44">+CS24*(1+$AH$78)</f>
-        <v>541.51731657253254</v>
-      </c>
-      <c r="CU24" s="3">
-        <f t="shared" si="44"/>
-        <v>536.10214340680716</v>
-      </c>
-      <c r="CV24" s="3">
-        <f t="shared" si="44"/>
-        <v>530.74112197273905</v>
-      </c>
-      <c r="CW24" s="3">
-        <f t="shared" si="44"/>
-        <v>525.43371075301161</v>
-      </c>
-      <c r="CX24" s="3">
-        <f t="shared" si="44"/>
-        <v>520.17937364548152</v>
-      </c>
-      <c r="CY24" s="3">
-        <f t="shared" si="44"/>
-        <v>514.97757990902664</v>
-      </c>
-      <c r="CZ24" s="3">
-        <f t="shared" si="44"/>
-        <v>509.82780410993638</v>
-      </c>
-      <c r="DA24" s="3">
-        <f t="shared" si="44"/>
-        <v>504.729526068837</v>
-      </c>
-      <c r="DB24" s="3">
-        <f t="shared" si="44"/>
-        <v>499.68223080814863</v>
-      </c>
-      <c r="DC24" s="3">
-        <f t="shared" si="44"/>
-        <v>494.68540850006713</v>
-      </c>
-      <c r="DD24" s="3">
-        <f t="shared" si="44"/>
-        <v>489.73855441506646</v>
-      </c>
-      <c r="DE24" s="3">
-        <f t="shared" si="44"/>
-        <v>484.84116887091579</v>
-      </c>
-      <c r="DF24" s="3">
-        <f t="shared" si="44"/>
-        <v>479.99275718220662</v>
-      </c>
-      <c r="DG24" s="3">
-        <f t="shared" si="44"/>
-        <v>475.19282961038454</v>
-      </c>
-      <c r="DH24" s="3">
-        <f t="shared" si="44"/>
-        <v>470.44090131428067</v>
-      </c>
-      <c r="DI24" s="3">
-        <f t="shared" si="44"/>
-        <v>465.73649230113784</v>
-      </c>
-      <c r="DJ24" s="3">
-        <f t="shared" si="44"/>
-        <v>461.07912737812649</v>
-      </c>
-      <c r="DK24" s="3">
-        <f t="shared" si="44"/>
-        <v>456.46833610434521</v>
-      </c>
-      <c r="DL24" s="3">
-        <f t="shared" si="44"/>
-        <v>451.90365274330173</v>
-      </c>
-      <c r="DM24" s="3">
-        <f t="shared" si="44"/>
-        <v>447.38461621586873</v>
-      </c>
-      <c r="DN24" s="3">
-        <f t="shared" si="44"/>
-        <v>442.91077005371005</v>
-      </c>
-      <c r="DO24" s="3">
-        <f t="shared" si="44"/>
         <v>438.48166235317296</v>
       </c>
     </row>
@@ -3199,56 +3208,56 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:N25" si="45">+F24/F26</f>
+        <f t="shared" ref="F25:N25" si="44">+F24/F26</f>
         <v>-5.2910570613702017E-2</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="44"/>
+        <v>-4.3445433297580778E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="44"/>
+        <v>-3.3508805957312933E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="44"/>
+        <v>-2.7016006938902208E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="44"/>
+        <v>5.6118782791625688E-3</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="44"/>
+        <v>5.9634315384827385E-2</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="44"/>
+        <v>5.6633108664250427E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="44"/>
+        <v>0.10036604530032268</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="44"/>
+        <v>9.2599304560155166E-2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:R25" si="45">+O24/O26</f>
+        <v>0.20062022406272237</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="45"/>
-        <v>-4.3445433297580778E-2</v>
-      </c>
-      <c r="H25" s="6">
+        <v>0.16540274595040164</v>
+      </c>
+      <c r="Q25" s="6">
         <f t="shared" si="45"/>
-        <v>-3.3508805957312933E-2</v>
-      </c>
-      <c r="I25" s="6">
+        <v>0.46748286851729443</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="45"/>
-        <v>-2.7016006938902208E-2</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="45"/>
-        <v>5.6118782791625688E-3</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="45"/>
-        <v>5.9634315384827385E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="45"/>
-        <v>5.6633108664250427E-2</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="45"/>
-        <v>0.10036604530032268</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="45"/>
-        <v>9.2599304560155166E-2</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25:R25" si="46">+O24/O26</f>
-        <v>0.20062022406272237</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="46"/>
-        <v>0.57650008617647297</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="46"/>
-        <v>0.47100527442835366</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="46"/>
-        <v>0.33540802151307292</v>
+        <v>0.33725558367845293</v>
       </c>
       <c r="W25" s="2">
         <f>+W24/W26</f>
@@ -3271,23 +3280,23 @@
         <v>1.2499811439730946</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" ref="AB25:AF25" si="47">+AB24/AB26</f>
+        <f t="shared" ref="AB25:AF25" si="46">+AB24/AB26</f>
         <v>1.9999068538282909</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2.4589007814866912</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2.9603707534567709</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>3.7121468025871325</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>4.4734652754985031</v>
       </c>
     </row>
@@ -3329,16 +3338,15 @@
         <v>246.610232</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" ref="O26:R26" si="48">+O26</f>
-        <v>246.610232</v>
+        <v>256.779292</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="48"/>
-        <v>246.610232</v>
+        <f t="shared" ref="P26:R26" si="47">+P26</f>
+        <v>256.779292</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="48"/>
-        <v>246.610232</v>
+        <f t="shared" si="47"/>
+        <v>256.779292</v>
       </c>
       <c r="W26" s="3">
         <v>186.78153699999999</v>
@@ -3358,23 +3366,23 @@
         <v>234.98786474999997</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" ref="AB26:AF26" si="49">+AA26</f>
+        <f t="shared" ref="AB26:AF26" si="48">+AA26</f>
         <v>234.98786474999997</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>234.98786474999997</v>
       </c>
     </row>
@@ -3390,103 +3398,103 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
-        <f t="shared" ref="J28:R28" si="50">+J12/F12-1</f>
+        <f t="shared" ref="J28:R28" si="49">+J12/F12-1</f>
         <v>0.47496755440990879</v>
       </c>
       <c r="K28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.45814855585259751</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.51818076878679453</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.77131791494448576</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.95094051958689318</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="49"/>
+        <v>1.1066178717407635</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.72597323600973218</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.48123798424130126</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="49"/>
+        <v>0.34015326132365065</v>
+      </c>
+      <c r="V28" s="13">
+        <f t="shared" ref="V28:AF28" si="50">+V12/U12-1</f>
+        <v>0.80184839749024928</v>
+      </c>
+      <c r="W28" s="13">
         <f t="shared" si="50"/>
-        <v>0.45814855585259751</v>
-      </c>
-      <c r="L28" s="12">
+        <v>0.8276652527276025</v>
+      </c>
+      <c r="X28" s="13">
         <f t="shared" si="50"/>
-        <v>0.51818076878679453</v>
-      </c>
-      <c r="M28" s="12">
+        <v>0.9380604535857997</v>
+      </c>
+      <c r="Y28" s="13">
         <f t="shared" si="50"/>
-        <v>0.77131791494448576</v>
-      </c>
-      <c r="N28" s="12">
+        <v>0.65491273751413881</v>
+      </c>
+      <c r="Z28" s="13">
         <f t="shared" si="50"/>
-        <v>0.95094051958689318</v>
-      </c>
-      <c r="O28" s="12">
+        <v>0.69325000000000014</v>
+      </c>
+      <c r="AA28" s="13">
         <f t="shared" si="50"/>
-        <v>1.1066178717407635</v>
-      </c>
-      <c r="P28" s="12">
+        <v>0.60540299651747254</v>
+      </c>
+      <c r="AB28" s="13">
         <f t="shared" si="50"/>
-        <v>0.72597323600973218</v>
-      </c>
-      <c r="Q28" s="12">
+        <v>0.24725289773877868</v>
+      </c>
+      <c r="AC28" s="13">
         <f t="shared" si="50"/>
-        <v>0.48123798424130126</v>
-      </c>
-      <c r="R28" s="12">
+        <v>0.18157312299496731</v>
+      </c>
+      <c r="AD28" s="13">
         <f t="shared" si="50"/>
-        <v>0.34015326132365065</v>
-      </c>
-      <c r="V28" s="13">
-        <f t="shared" ref="V28:AF28" si="51">+V12/U12-1</f>
-        <v>0.80184839749024928</v>
-      </c>
-      <c r="W28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.8276652527276025</v>
-      </c>
-      <c r="X28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.9380604535857997</v>
-      </c>
-      <c r="Y28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.65491273751413881</v>
-      </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.69325000000000014</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.60540299651747254</v>
-      </c>
-      <c r="AB28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.24725289773877868</v>
-      </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="51"/>
-        <v>0.18157312299496731</v>
-      </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="51"/>
         <v>0.16212920440259659</v>
       </c>
       <c r="AE28" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0.14710666939536576</v>
       </c>
       <c r="AF28" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0.13515139759478934</v>
       </c>
       <c r="AG28" s="13">
-        <f t="shared" ref="AG28" si="52">+AG12/AF12-1</f>
+        <f t="shared" ref="AG28" si="51">+AG12/AF12-1</f>
         <v>-1</v>
       </c>
       <c r="AH28" s="13" t="e">
-        <f t="shared" ref="AH28" si="53">+AH12/AG12-1</f>
+        <f t="shared" ref="AH28" si="52">+AH12/AG12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="13" t="e">
-        <f t="shared" ref="AI28" si="54">+AI12/AH12-1</f>
+        <f t="shared" ref="AI28" si="53">+AI12/AH12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="13" t="e">
-        <f t="shared" ref="AJ28" si="55">+AJ12/AI12-1</f>
+        <f t="shared" ref="AJ28" si="54">+AJ12/AI12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="13" t="e">
-        <f t="shared" ref="AK28" si="56">+AK12/AJ12-1</f>
+        <f t="shared" ref="AK28" si="55">+AK12/AJ12-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3502,19 +3510,19 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:M29" si="57">J3/F3-1</f>
+        <f t="shared" ref="J29:M29" si="56">J3/F3-1</f>
         <v>0.47788461538461546</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.41356492969396186</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.43384615384615377</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.43548387096774199</v>
       </c>
       <c r="N29" s="12">
@@ -3545,31 +3553,31 @@
         <v>40</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" ref="F31:L31" si="58">+F14/F12</f>
+        <f t="shared" ref="F31:L31" si="57">+F14/F12</f>
         <v>0.79147503334270308</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.80424070870681974</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.81841355958290052</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.82624096268620506</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.82742205588377216</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.82357614560827697</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.8129720448094081</v>
       </c>
       <c r="M31" s="16">
@@ -3577,23 +3585,23 @@
         <v>0.7916355377581209</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" ref="N31:R31" si="59">+N14/N12</f>
+        <f t="shared" ref="N31:R31" si="58">+N14/N12</f>
         <v>0.76805455388151866</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.73494709897610921</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
+        <v>0.76388215859030839</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="58"/>
         <v>0.8</v>
       </c>
-      <c r="Q31" s="16">
-        <f t="shared" si="59"/>
-        <v>0.8</v>
-      </c>
       <c r="R31" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="W31" s="14">
@@ -3617,23 +3625,23 @@
         <v>0.78</v>
       </c>
       <c r="AB31" s="14">
-        <f t="shared" ref="AB31:AF31" si="60">+AB14/AB12</f>
+        <f t="shared" ref="AB31:AF31" si="59">+AB14/AB12</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="AC31" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.72</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
       <c r="AE31" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
       <c r="AF31" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
     </row>
@@ -3949,7 +3957,7 @@
         <v>448.10600000000005</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" ref="L50" si="61">SUM(L43:L49)</f>
+        <f t="shared" ref="L50" si="60">SUM(L43:L49)</f>
         <v>480.5</v>
       </c>
       <c r="M50" s="5">
@@ -3970,15 +3978,15 @@
         <v>13.678000000000049</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" ref="L52:N52" si="62">L24</f>
+        <f t="shared" ref="L52:N52" si="61">L24</f>
         <v>13.297000000000057</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>22.290999999999947</v>
       </c>
     </row>
@@ -4171,11 +4179,11 @@
         <v>25.838000000000005</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" ref="L62:M62" si="63">SUM(L53:L61)</f>
+        <f t="shared" ref="L62:M62" si="62">SUM(L53:L61)</f>
         <v>52.994999999999997</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>85.865999999999985</v>
       </c>
       <c r="N62" s="8">
@@ -4523,11 +4531,11 @@
         <v>32</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="64">+K62+K67+K65</f>
+        <f t="shared" ref="K79:L79" si="63">+K62+K67+K65</f>
         <v>11.880000000000006</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>46.969000000000001</v>
       </c>
       <c r="M79" s="5">
